--- a/feedback.xlsx
+++ b/feedback.xlsx
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -474,9 +474,60 @@
         <v>16/2/2026, 7:41:18 pm</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>himanshi</v>
+      </c>
+      <c r="B4" t="str">
+        <v>himanshi@gmail.com</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="str">
+        <v>good for health</v>
+      </c>
+      <c r="E4" t="str">
+        <v>16/2/2026, 7:55:43 pm</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Geetika</v>
+      </c>
+      <c r="B5" t="str">
+        <v>geetikadidwania17@gmail.com</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="str">
+        <v>great!!</v>
+      </c>
+      <c r="E5" t="str">
+        <v>23/2/2026, 4:04:13 pm</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Parry</v>
+      </c>
+      <c r="B6" t="str">
+        <v>parry@gmail.com</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Great!!!</v>
+      </c>
+      <c r="E6" t="str">
+        <v>23/2/2026, 4:07:37 pm</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
   </ignoredErrors>
 </worksheet>
 </file>